--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -3068,22 +3068,62 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>26/04/2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M46" t="n">
+        <v>9</v>
+      </c>
+      <c r="N46" t="n">
+        <v>16</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -3126,22 +3126,62 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>11</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -516,22 +516,62 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09/08/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -574,22 +574,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>16/08/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -632,22 +632,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23/08/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -690,22 +690,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>30/08/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -748,22 +748,62 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wrexham</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -806,22 +806,62 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -864,22 +864,62 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sheff Wed</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -922,22 +922,62 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -980,22 +980,62 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1038,40 +1038,120 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18/10/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M12" t="n">
+        <v>15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1154,22 +1154,62 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1212,22 +1212,62 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1270,40 +1270,120 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sheff Utd</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>20</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1386,40 +1386,120 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M17" t="n">
+        <v>26</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1502,22 +1502,62 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>29/11/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1560,22 +1560,62 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1618,40 +1618,120 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M21" t="n">
+        <v>16</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M22" t="n">
+        <v>13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>18</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1734,22 +1734,62 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M23" t="n">
+        <v>12</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1792,22 +1792,62 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>26/12/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1850,40 +1850,120 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -1966,22 +1966,62 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sheff Wed</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>13</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>7</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -2024,58 +2024,178 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7</v>
+      </c>
+      <c r="N28" t="n">
+        <v>12</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M29" t="n">
+        <v>13</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>24/01/2026</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Wrexham</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M30" t="n">
+        <v>13</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -2198,22 +2198,62 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>31/01/2026</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M31" t="n">
+        <v>15</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -2256,22 +2256,62 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>06/02/2026</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M32" t="n">
+        <v>18</v>
+      </c>
+      <c r="N32" t="n">
+        <v>16</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>

--- a/new-stats/queens-park-rangers-fc.xlsx
+++ b/new-stats/queens-park-rangers-fc.xlsx
@@ -2314,22 +2314,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>14/02/2026</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M33" t="n">
+        <v>21</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
